--- a/biology/Botanique/Matricaire/Matricaire.xlsx
+++ b/biology/Botanique/Matricaire/Matricaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les Matricaires, le genre Matricaria regroupe des espèce de plantes à fleurs appartenant à la famille des Astéracées (ou Composées).
 Matricaria vient de matrix : « femelle, matrice » (la plante est utilisée traditionnellement pour soulager les douleurs des règles).
@@ -515,7 +527,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les matricaires sont des plantes annuelles de 50 centimètres à 1,5 m de hauteur, à tige dressée, rameuse. Les feuilles, alternes, sessiles, épaisses, charnues, sont très divisées, en lanières. Les fleurs, jaunes au centre, blanches à la circonférence, généralement très odorantes, sont groupées en capitules solitaires au sommet des rameaux. Le fruit est très petit, blanc jaunâtre, légèrement arqué.
 </t>
@@ -546,7 +560,9 @@
           <t>Principales espèces de Matricaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Matricaria aurea (Loefl.) Sch. Bip., la Matricaire dorée
 Matricaria chamomilla L., la Matricaire camomille ou Camomille sauvage
@@ -583,9 +599,11 @@
           <t>Liste d'espèces du genre Matricaria</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 mars 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 mars 2021) :
 Matricaria aurea (Loefl.) Sch. Bip.
 Matricaria chamomilla L.
 Matricaria discoidea DC.
